--- a/Data collection/monthly_average_CAD.xlsx
+++ b/Data collection/monthly_average_CAD.xlsx
@@ -19,7 +19,7 @@
     <t>index</t>
   </si>
   <si>
-    <t>JPY/USD</t>
+    <t>CAD/USD</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
         <v>41305</v>
       </c>
       <c r="B2">
-        <v>0.0112102</v>
+        <v>1.0081979</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -408,7 +408,7 @@
         <v>41333</v>
       </c>
       <c r="B3">
-        <v>0.01074221428571429</v>
+        <v>0.9919418571428571</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -416,7 +416,7 @@
         <v>41364</v>
       </c>
       <c r="B4">
-        <v>0.01054958064516129</v>
+        <v>0.9766403225806451</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -424,7 +424,7 @@
         <v>41394</v>
       </c>
       <c r="B5">
-        <v>0.0102165</v>
+        <v>0.9817697333333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -432,7 +432,7 @@
         <v>41425</v>
       </c>
       <c r="B6">
-        <v>0.009905935483870969</v>
+        <v>0.9804087419354839</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -440,7 +440,7 @@
         <v>41455</v>
       </c>
       <c r="B7">
-        <v>0.01025346666666667</v>
+        <v>0.9687314666666667</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -448,7 +448,7 @@
         <v>41486</v>
       </c>
       <c r="B8">
-        <v>0.01003235483870968</v>
+        <v>0.9609007419354838</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -456,7 +456,7 @@
         <v>41517</v>
       </c>
       <c r="B9">
-        <v>0.01022</v>
+        <v>0.9615279677419355</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -464,7 +464,7 @@
         <v>41547</v>
       </c>
       <c r="B10">
-        <v>0.0100871</v>
+        <v>0.9653917333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -472,7 +472,7 @@
         <v>41578</v>
       </c>
       <c r="B11">
-        <v>0.01022177419354839</v>
+        <v>0.9652903870967743</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -480,7 +480,7 @@
         <v>41608</v>
       </c>
       <c r="B12">
-        <v>0.009994566666666668</v>
+        <v>0.9538206666666667</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -488,7 +488,7 @@
         <v>41639</v>
       </c>
       <c r="B13">
-        <v>0.009653161290322581</v>
+        <v>0.9400084516129033</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -496,7 +496,7 @@
         <v>41670</v>
       </c>
       <c r="B14">
-        <v>0.00962341935483871</v>
+        <v>0.9160332903225806</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -504,7 +504,7 @@
         <v>41698</v>
       </c>
       <c r="B15">
-        <v>0.009790464285714286</v>
+        <v>0.9045171428571429</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -512,7 +512,7 @@
         <v>41729</v>
       </c>
       <c r="B16">
-        <v>0.009773258064516128</v>
+        <v>0.9001577741935484</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -520,7 +520,7 @@
         <v>41759</v>
       </c>
       <c r="B17">
-        <v>0.009758800000000002</v>
+        <v>0.9093376666666667</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -528,7 +528,7 @@
         <v>41790</v>
       </c>
       <c r="B18">
-        <v>0.009819258064516128</v>
+        <v>0.9180740322580645</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -536,7 +536,7 @@
         <v>41820</v>
       </c>
       <c r="B19">
-        <v>0.009800366666666668</v>
+        <v>0.9240605666666667</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -544,7 +544,7 @@
         <v>41851</v>
       </c>
       <c r="B20">
-        <v>0.009829419354838709</v>
+        <v>0.931436806451613</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -552,7 +552,7 @@
         <v>41882</v>
       </c>
       <c r="B21">
-        <v>0.009710290322580644</v>
+        <v>0.9154186129032259</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -560,7 +560,7 @@
         <v>41912</v>
       </c>
       <c r="B22">
-        <v>0.009311966666666668</v>
+        <v>0.9082667</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -568,7 +568,7 @@
         <v>41943</v>
       </c>
       <c r="B23">
-        <v>0.009255903225806451</v>
+        <v>0.8911617096774194</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -576,7 +576,7 @@
         <v>41973</v>
       </c>
       <c r="B24">
-        <v>0.008608566666666668</v>
+        <v>0.8832254</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -584,7 +584,7 @@
         <v>42004</v>
       </c>
       <c r="B25">
-        <v>0.008366064516129033</v>
+        <v>0.8661707419354839</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -592,7 +592,7 @@
         <v>42035</v>
       </c>
       <c r="B26">
-        <v>0.008446935483870969</v>
+        <v>0.8278490000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -600,7 +600,7 @@
         <v>42063</v>
       </c>
       <c r="B27">
-        <v>0.008420964285714285</v>
+        <v>0.7992476428571429</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -608,7 +608,7 @@
         <v>42094</v>
       </c>
       <c r="B28">
-        <v>0.00831</v>
+        <v>0.7926831290322581</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -616,7 +616,7 @@
         <v>42124</v>
       </c>
       <c r="B29">
-        <v>0.008369900000000001</v>
+        <v>0.8096779333333333</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -624,7 +624,7 @@
         <v>42155</v>
       </c>
       <c r="B30">
-        <v>0.008276322580645161</v>
+        <v>0.8210163548387096</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -632,7 +632,7 @@
         <v>42185</v>
       </c>
       <c r="B31">
-        <v>0.008082633333333334</v>
+        <v>0.8095077666666667</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -640,7 +640,7 @@
         <v>42216</v>
       </c>
       <c r="B32">
-        <v>0.00810941935483871</v>
+        <v>0.779173</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -648,7 +648,7 @@
         <v>42247</v>
       </c>
       <c r="B33">
-        <v>0.008122451612903226</v>
+        <v>0.7609101290322581</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -656,7 +656,7 @@
         <v>42277</v>
       </c>
       <c r="B34">
-        <v>0.008326</v>
+        <v>0.7535996333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -664,7 +664,7 @@
         <v>42308</v>
       </c>
       <c r="B35">
-        <v>0.00832174193548387</v>
+        <v>0.7653364193548386</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -672,7 +672,7 @@
         <v>42338</v>
       </c>
       <c r="B36">
-        <v>0.008157299999999999</v>
+        <v>0.7529269666666667</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -680,7 +680,7 @@
         <v>42369</v>
       </c>
       <c r="B37">
-        <v>0.008226645161290323</v>
+        <v>0.7293797096774194</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -688,7 +688,7 @@
         <v>42400</v>
       </c>
       <c r="B38">
-        <v>0.008441806451612903</v>
+        <v>0.705030935483871</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -696,7 +696,7 @@
         <v>42429</v>
       </c>
       <c r="B39">
-        <v>0.008729103448275861</v>
+        <v>0.7252616551724138</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -704,7 +704,7 @@
         <v>42460</v>
       </c>
       <c r="B40">
-        <v>0.008850258064516128</v>
+        <v>0.7566114516129033</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -712,7 +712,7 @@
         <v>42490</v>
       </c>
       <c r="B41">
-        <v>0.0091222</v>
+        <v>0.7794618333333333</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -720,7 +720,7 @@
         <v>42521</v>
       </c>
       <c r="B42">
-        <v>0.009186935483870968</v>
+        <v>0.7726920322580645</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -728,7 +728,7 @@
         <v>42551</v>
       </c>
       <c r="B43">
-        <v>0.0094923</v>
+        <v>0.7756466999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -736,7 +736,7 @@
         <v>42582</v>
       </c>
       <c r="B44">
-        <v>0.009640193548387096</v>
+        <v>0.7675035161290322</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -744,7 +744,7 @@
         <v>42613</v>
       </c>
       <c r="B45">
-        <v>0.009872161290322581</v>
+        <v>0.769382064516129</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -752,7 +752,7 @@
         <v>42643</v>
       </c>
       <c r="B46">
-        <v>0.009806566666666666</v>
+        <v>0.7640209666666666</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -760,7 +760,7 @@
         <v>42674</v>
       </c>
       <c r="B47">
-        <v>0.009643806451612903</v>
+        <v>0.7547240322580645</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -768,7 +768,7 @@
         <v>42704</v>
       </c>
       <c r="B48">
-        <v>0.009219466666666667</v>
+        <v>0.7432968333333334</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -776,7 +776,7 @@
         <v>42735</v>
       </c>
       <c r="B49">
-        <v>0.008614709677419355</v>
+        <v>0.7492400967741936</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -784,7 +784,7 @@
         <v>42766</v>
       </c>
       <c r="B50">
-        <v>0.008695193548387097</v>
+        <v>0.7569989032258064</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -792,7 +792,7 @@
         <v>42794</v>
       </c>
       <c r="B51">
-        <v>0.008852</v>
+        <v>0.7632536428571429</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -800,7 +800,7 @@
         <v>42825</v>
       </c>
       <c r="B52">
-        <v>0.008852774193548388</v>
+        <v>0.7472942580645162</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -808,7 +808,7 @@
         <v>42855</v>
       </c>
       <c r="B53">
-        <v>0.009080300000000001</v>
+        <v>0.7442070333333334</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -816,7 +816,7 @@
         <v>42886</v>
       </c>
       <c r="B54">
-        <v>0.008915709677419354</v>
+        <v>0.7355879032258065</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -824,7 +824,7 @@
         <v>42916</v>
       </c>
       <c r="B55">
-        <v>0.009021866666666666</v>
+        <v>0.7514068333333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -832,7 +832,7 @@
         <v>42947</v>
       </c>
       <c r="B56">
-        <v>0.00890841935483871</v>
+        <v>0.78774</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -840,7 +840,7 @@
         <v>42978</v>
       </c>
       <c r="B57">
-        <v>0.009112064516129033</v>
+        <v>0.7935293870967742</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -848,7 +848,7 @@
         <v>43008</v>
       </c>
       <c r="B58">
-        <v>0.009033933333333332</v>
+        <v>0.8135668333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -856,7 +856,7 @@
         <v>43039</v>
       </c>
       <c r="B59">
-        <v>0.008856451612903226</v>
+        <v>0.7939619032258064</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -864,7 +864,7 @@
         <v>43069</v>
       </c>
       <c r="B60">
-        <v>0.008865633333333334</v>
+        <v>0.7839445333333334</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -872,7 +872,7 @@
         <v>43100</v>
       </c>
       <c r="B61">
-        <v>0.008856032258064517</v>
+        <v>0.7841092903225806</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -880,7 +880,7 @@
         <v>43131</v>
       </c>
       <c r="B62">
-        <v>0.009015806451612905</v>
+        <v>0.8046428387096775</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -888,7 +888,7 @@
         <v>43159</v>
       </c>
       <c r="B63">
-        <v>0.009272535714285714</v>
+        <v>0.7953794642857143</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -896,7 +896,7 @@
         <v>43190</v>
       </c>
       <c r="B64">
-        <v>0.009435451612903226</v>
+        <v>0.773730870967742</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -904,7 +904,7 @@
         <v>43220</v>
       </c>
       <c r="B65">
-        <v>0.009294666666666666</v>
+        <v>0.7851003666666667</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -912,7 +912,7 @@
         <v>43251</v>
       </c>
       <c r="B66">
-        <v>0.009118612903225807</v>
+        <v>0.7770787096774193</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -920,7 +920,7 @@
         <v>43281</v>
       </c>
       <c r="B67">
-        <v>0.009084533333333334</v>
+        <v>0.7624343666666668</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -928,7 +928,7 @@
         <v>43312</v>
       </c>
       <c r="B68">
-        <v>0.008977612903225806</v>
+        <v>0.7617717741935484</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -936,7 +936,7 @@
         <v>43343</v>
       </c>
       <c r="B69">
-        <v>0.009008677419354839</v>
+        <v>0.7664402903225807</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -944,7 +944,7 @@
         <v>43373</v>
       </c>
       <c r="B70">
-        <v>0.008926166666666667</v>
+        <v>0.7675220666666667</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -952,7 +952,7 @@
         <v>43404</v>
       </c>
       <c r="B71">
-        <v>0.008872548387096774</v>
+        <v>0.7676967419354839</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -960,7 +960,7 @@
         <v>43434</v>
       </c>
       <c r="B72">
-        <v>0.008827100000000001</v>
+        <v>0.7578154666666667</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -968,7 +968,7 @@
         <v>43465</v>
       </c>
       <c r="B73">
-        <v>0.008917999999999999</v>
+        <v>0.7436848387096774</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -976,7 +976,7 @@
         <v>43496</v>
       </c>
       <c r="B74">
-        <v>0.009178870967741936</v>
+        <v>0.7518466129032257</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -984,7 +984,7 @@
         <v>43524</v>
       </c>
       <c r="B75">
-        <v>0.009061678571428571</v>
+        <v>0.7574941785714285</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -992,7 +992,7 @@
         <v>43555</v>
       </c>
       <c r="B76">
-        <v>0.008999129032258066</v>
+        <v>0.7480522903225806</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>43585</v>
       </c>
       <c r="B77">
-        <v>0.008951800000000001</v>
+        <v>0.7471715</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>43616</v>
       </c>
       <c r="B78">
-        <v>0.009093225806451612</v>
+        <v>0.7430505806451613</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>43646</v>
       </c>
       <c r="B79">
-        <v>0.009252466666666665</v>
+        <v>0.7521489</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43677</v>
       </c>
       <c r="B80">
-        <v>0.009239064516129034</v>
+        <v>0.7632278387096775</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>43708</v>
       </c>
       <c r="B81">
-        <v>0.009424354838709677</v>
+        <v>0.753069935483871</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>43738</v>
       </c>
       <c r="B82">
-        <v>0.009302233333333333</v>
+        <v>0.7550548333333332</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>43769</v>
       </c>
       <c r="B83">
-        <v>0.009249612903225806</v>
+        <v>0.7582864838709678</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>43799</v>
       </c>
       <c r="B84">
-        <v>0.0091853</v>
+        <v>0.7554428000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>43830</v>
       </c>
       <c r="B85">
-        <v>0.009160645161290323</v>
+        <v>0.759404</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>43861</v>
       </c>
       <c r="B86">
-        <v>0.009155</v>
+        <v>0.7646641612903226</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>43890</v>
       </c>
       <c r="B87">
-        <v>0.009099241379310345</v>
+        <v>0.7527920344827586</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>43921</v>
       </c>
       <c r="B88">
-        <v>0.009291096774193548</v>
+        <v>0.7183052903225806</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>43951</v>
       </c>
       <c r="B89">
-        <v>0.009272499999999999</v>
+        <v>0.7115262666666666</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>43982</v>
       </c>
       <c r="B90">
-        <v>0.009325096774193549</v>
+        <v>0.7147749999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>44012</v>
       </c>
       <c r="B91">
-        <v>0.009290233333333333</v>
+        <v>0.7376136333333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>44043</v>
       </c>
       <c r="B92">
-        <v>0.009366516129032259</v>
+        <v>0.7401392903225806</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>44074</v>
       </c>
       <c r="B93">
-        <v>0.009434419354838708</v>
+        <v>0.7554033548387097</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>44104</v>
       </c>
       <c r="B94">
-        <v>0.009468766666666666</v>
+        <v>0.7566317666666666</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>44135</v>
       </c>
       <c r="B95">
-        <v>0.009504</v>
+        <v>0.7570719032258064</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>44165</v>
       </c>
       <c r="B96">
-        <v>0.0095878</v>
+        <v>0.7647254666666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>44196</v>
       </c>
       <c r="B97">
-        <v>0.009638419354838709</v>
+        <v>0.7806929677419354</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>44227</v>
       </c>
       <c r="B98">
-        <v>0.009634999999999999</v>
+        <v>0.7856322258064516</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>44255</v>
       </c>
       <c r="B99">
-        <v>0.009483035714285715</v>
+        <v>0.7876709642857144</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>44286</v>
       </c>
       <c r="B100">
-        <v>0.009190096774193548</v>
+        <v>0.795491193548387</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>44316</v>
       </c>
       <c r="B101">
-        <v>0.009167766666666665</v>
+        <v>0.7998773</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>44347</v>
       </c>
       <c r="B102">
-        <v>0.00915909677419355</v>
+        <v>0.8246994838709678</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>44377</v>
       </c>
       <c r="B103">
-        <v>0.009079166666666666</v>
+        <v>0.8175539666666667</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>44408</v>
       </c>
       <c r="B104">
-        <v>0.009069258064516129</v>
+        <v>0.799386935483871</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>44439</v>
       </c>
       <c r="B105">
-        <v>0.009103451612903225</v>
+        <v>0.7935350322580644</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>44469</v>
       </c>
       <c r="B106">
-        <v>0.009078333333333332</v>
+        <v>0.7893138666666667</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>44500</v>
       </c>
       <c r="B107">
-        <v>0.008838580645161291</v>
+        <v>0.8036833870967742</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>44530</v>
       </c>
       <c r="B108">
-        <v>0.008772533333333334</v>
+        <v>0.7950491333333333</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>44561</v>
       </c>
       <c r="B109">
-        <v>0.008784096774193549</v>
+        <v>0.7812744838709677</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>44592</v>
       </c>
       <c r="B110">
-        <v>0.008707806451612904</v>
+        <v>0.7918619677419355</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>44620</v>
       </c>
       <c r="B111">
-        <v>0.008675821428571429</v>
+        <v>0.7857839285714286</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>44651</v>
       </c>
       <c r="B112">
-        <v>0.008431387096774195</v>
+        <v>0.7905079354838709</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>44681</v>
       </c>
       <c r="B113">
-        <v>0.0079203</v>
+        <v>0.7916016666666666</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>44712</v>
       </c>
       <c r="B114">
-        <v>0.007763193548387097</v>
+        <v>0.7787242580645162</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>44742</v>
       </c>
       <c r="B115">
-        <v>0.0074589</v>
+        <v>0.7803273333333334</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>44773</v>
       </c>
       <c r="B116">
-        <v>0.007332225806451613</v>
+        <v>0.7734361935483871</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>44804</v>
       </c>
       <c r="B117">
-        <v>0.007383516129032259</v>
+        <v>0.7735536451612903</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>44834</v>
       </c>
       <c r="B118">
-        <v>0.0069961</v>
+        <v>0.7513194333333334</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>44865</v>
       </c>
       <c r="B119">
-        <v>0.006803</v>
+        <v>0.7295413548387096</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>44895</v>
       </c>
       <c r="B120">
-        <v>0.007055133333333334</v>
+        <v>0.7462836333333333</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>44926</v>
       </c>
       <c r="B121">
-        <v>0.007420838709677419</v>
+        <v>0.7349865483870969</v>
       </c>
     </row>
   </sheetData>
